--- a/biology/Zoologie/Chiens_jouant_au_poker/Chiens_jouant_au_poker.xlsx
+++ b/biology/Zoologie/Chiens_jouant_au_poker/Chiens_jouant_au_poker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Chiens jouant au poker (en anglais, Dogs Playing Poker) est une série de 16 peintures à l'huile de C. M. Coolidge commandées en 1903 par Brown &amp; Bigelow pour faire la promotion de cigares[1].
-Toutes ces peintures montrent des chiens anthropomorphes, mais la plus connue est la numéro 9 qui montre des chiens assis autour d'une table de jeu (Waterloo)[2].
+Les Chiens jouant au poker (en anglais, Dogs Playing Poker) est une série de 16 peintures à l'huile de C. M. Coolidge commandées en 1903 par Brown &amp; Bigelow pour faire la promotion de cigares.
+Toutes ces peintures montrent des chiens anthropomorphes, mais la plus connue est la numéro 9 qui montre des chiens assis autour d'une table de jeu (Waterloo).
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Les peintures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les titres des peintures composant le cycle Dogs Playing Poker sont :
-A Bold Bluff (titre original Judge St. Bernard Stands Pat on Nothing)[3]
+A Bold Bluff (titre original Judge St. Bernard Stands Pat on Nothing)
 A Friend in Need
 His Station and Four Aces
 Pinched with Four Aces
@@ -524,10 +538,10 @@
 Post Mortem
 Sitting up with a Sick Friend
 Stranger in Camp
-Waterloo (titre original Judge St. Bernard Wins on a Bluff)[3]
+Waterloo (titre original Judge St. Bernard Wins on a Bluff)
 Ces peintures sont suivies en 1910 par une peinture similaire, Looks Like Four of a Kind.
-Certains des personnages du cycle sont inspirés de joueurs de cartes de peintures du Caravage, de Georges de La Tour et de Paul Cézanne[3]. Le Saint Bernard dans les peintures Waterloo et A Bold Bluff a pour modèle le chien, dénommé Captain, du fleuriste de la Cinquième Avenue Theodore Lang, un ami de Coolidge[4].
-Le 15 février 2005, les peintures A Bold Bluff et Waterloo sont vendues par lot pour 590 000 US$ à un acheteur inconnu[5]. La toile de Coolidge la plus chère avant cette vente avait été vendue 74 000 US$[6].
+Certains des personnages du cycle sont inspirés de joueurs de cartes de peintures du Caravage, de Georges de La Tour et de Paul Cézanne. Le Saint Bernard dans les peintures Waterloo et A Bold Bluff a pour modèle le chien, dénommé Captain, du fleuriste de la Cinquième Avenue Theodore Lang, un ami de Coolidge.
+Le 15 février 2005, les peintures A Bold Bluff et Waterloo sont vendues par lot pour 590 000 US$ à un acheteur inconnu. La toile de Coolidge la plus chère avant cette vente avait été vendue 74 000 US$.
 </t>
         </is>
       </c>
